--- a/Tech Skills/Module 3/11.xlsx
+++ b/Tech Skills/Module 3/11.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>лист</t>
   </si>
   <si>
     <t>контейнер</t>
+  </si>
+  <si>
+    <t>header</t>
   </si>
 </sst>
 </file>
@@ -354,15 +357,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1">
         <v>36.14</v>
       </c>
@@ -370,36 +376,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>25.14</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4">
-        <f>A1-4.07</f>
-        <v>32.07</v>
+        <v>28.05</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
-        <f>1.22/A4*100</f>
-        <v>3.8041783598378545</v>
-      </c>
-      <c r="D4">
-        <f>1.27/A4*100</f>
-        <v>3.9600873090115374</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <f>A2</f>
         <v>25.14</v>
       </c>
-      <c r="C5">
-        <f>1.32/A5*100</f>
-        <v>5.2505966587112169</v>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>25.56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f>A7/A4*100</f>
+        <v>91.122994652406405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>3.18</v>
+      </c>
+      <c r="C8">
+        <f>A8/A5*100</f>
+        <v>12.649164677804297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>3.81</v>
+      </c>
+      <c r="C10">
+        <f>A10/A7*100</f>
+        <v>14.906103286384978</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1.06</v>
+      </c>
+      <c r="C11">
+        <f>A11/A8*100</f>
+        <v>33.333333333333329</v>
       </c>
     </row>
   </sheetData>

--- a/Tech Skills/Module 3/11.xlsx
+++ b/Tech Skills/Module 3/11.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>лист</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>header</t>
+  </si>
+  <si>
+    <t>left-menu</t>
   </si>
 </sst>
 </file>
@@ -357,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -432,6 +435,27 @@
       <c r="C11">
         <f>A11/A8*100</f>
         <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>6.35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <f>A13/A7*100</f>
+        <v>24.843505477308295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>6.35</v>
+      </c>
+      <c r="C14">
+        <f>A14/15.88*100</f>
+        <v>39.987405541561714</v>
       </c>
     </row>
   </sheetData>
